--- a/data/trans_bre/P31_1_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P31_1_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +545,19 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Brecha de género relativa</t>
-        </is>
-      </c>
+      <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Brecha de género relativa</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -590,6 +632,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,38</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,77</t>
+          <t>8,56</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,16%</t>
+          <t>9,67</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>27,42%</t>
+          <t>6,68</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,91%</t>
+          <t>9,32</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,57%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>26,86%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-1,35%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>36,7%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>22,6%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>35,57%</t>
         </is>
       </c>
     </row>
@@ -642,32 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 4,62</t>
+          <t>-5,49; 5,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,61; 13,68</t>
+          <t>3,06; 13,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 4,93</t>
+          <t>-6,68; 5,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-21,17; 16,18</t>
+          <t>3,64; 15,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,12; 47,08</t>
+          <t>1,96; 11,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-17,4; 15,41</t>
+          <t>4,59; 14,43</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-15,67; 20,8</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>8,45; 46,6</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-17,29; 16,31</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>12,43; 66,61</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>5,78; 43,0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>15,23; 61,25</t>
         </is>
       </c>
     </row>
@@ -684,32 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,67</t>
+          <t>5,43</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,19</t>
+          <t>9,41</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,04</t>
+          <t>4,02</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>15,68</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>24,76%</t>
+          <t>6,99</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>7,34</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>17,12%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>29,23%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>11,97%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>57,27%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>21,24%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>23,33%</t>
         </is>
       </c>
     </row>
@@ -722,32 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 11,48</t>
+          <t>-1,21; 12,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,24; 14,63</t>
+          <t>3,4; 15,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 10,46</t>
+          <t>-2,17; 10,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 40,39</t>
+          <t>9,33; 23,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,92; 49,45</t>
+          <t>-2,66; 16,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 35,19</t>
+          <t>-2,55; 16,59</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-3,72; 45,75</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>8,84; 52,44</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-5,54; 34,77</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>31,14; 98,05</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-7,79; 61,4</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-8,0; 61,59</t>
         </is>
       </c>
     </row>
@@ -764,32 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,68</t>
+          <t>10,62</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,99</t>
+          <t>12,83</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,9%</t>
+          <t>9,09</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>28,04%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>39,17%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6,59%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>27,64%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>37,95%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>32,74%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -802,32 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,23; 12,89</t>
+          <t>-13,59; 14,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 22,23</t>
+          <t>-2,43; 22,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,08; 24,05</t>
+          <t>0,33; 23,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-36,65; 49,91</t>
+          <t>-5,44; 22,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 73,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,78; 92,68</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-30,15; 54,73</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-5,29; 70,24</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1,68; 91,64</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-16,79; 115,48</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -844,32 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,67</t>
+          <t>9,04</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>11,91</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>26,15%</t>
+          <t>6,66</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>8,75</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7,55%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>27,55%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>8,14%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>44,23%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>21,94%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>31,85%</t>
         </is>
       </c>
     </row>
@@ -882,44 +1140,81 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 5,24</t>
+          <t>-1,68; 6,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,78; 12,18</t>
+          <t>5,21; 12,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 6,51</t>
+          <t>-1,58; 6,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,06; 16,95</t>
+          <t>7,71; 16,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,77; 39,51</t>
+          <t>2,28; 11,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 20,07</t>
+          <t>4,41; 13,09</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-4,95; 22,75</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>14,59; 41,24</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-4,25; 19,84</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>26,33; 67,18</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>7,02; 39,41</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>14,69; 51,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P31_1_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P31_1_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,18</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>8,56</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,48</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>9,67</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>6,68</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>9,32</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,57%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>26,86%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-1,35%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>36,7%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>22,6%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>35,57%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.6915846908542911</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>8.578322388329074</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.6651538552315317</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>9.884541077439795</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>6.683573245156987</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>9.440867179712741</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.02112260053491102</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.2683600766605134</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.01861384648312877</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.3761259842278623</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.2260236951765823</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>0.3603797392574842</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-5,49; 5,96</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>3,06; 13,64</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-6,68; 5,18</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>3,64; 15,03</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>1,96; 11,89</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>4,59; 14,43</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-15,67; 20,8</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>8,45; 46,6</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-17,29; 16,31</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>12,43; 66,61</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>5,78; 43,0</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>15,23; 61,25</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-6.760423892407267</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>2.856048815080521</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-6.805269988700696</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>3.993730957327995</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>1.964593815816906</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>4.725143914510854</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.1867934517065707</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.08387222483922897</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.1755083289061371</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.1331740816907432</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>0.05784769863086911</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>0.1580815912689879</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>5.111340026116113</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>13.65986197411322</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.908517174776702</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>15.57734326773576</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>11.89168135099429</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>14.53334454196936</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.1778475473593467</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.4895606444723313</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.1538367204921284</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.6778084531121703</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.4300012010249572</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.6125989277498419</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>5,43</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>9,41</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4,02</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>15,68</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>6,99</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>7,34</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>17,12%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>29,23%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>11,97%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>57,27%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>21,24%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>23,33%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,21; 12,52</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>3,4; 15,14</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,17; 10,39</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>9,33; 23,0</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-2,66; 16,59</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-2,55; 16,59</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-3,72; 45,75</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>8,84; 52,44</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-5,54; 34,77</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>31,14; 98,05</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-7,79; 61,4</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-8,0; 61,59</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>7.272237375064611</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>8.341943074460501</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>3.954080248974074</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>15.41055876972317</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>6.986878887877817</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>7.311768066944879</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.2363011995108748</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.2545470781249529</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.1178265276656338</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.5655314977311338</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.2123606507576908</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.2318516602514029</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,24</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>10,62</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>12,83</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>9,09</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>6,59%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>27,64%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>37,95%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>32,74%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.4034389158730712</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>1.805545414568497</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-2.146874465576504</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>9.222833764206587</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-2.66391985053093</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-2.2471137451465</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.01240839731579048</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.0503885901686591</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.05561799557241427</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.305518271583235</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.07794435855182495</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.07249652714821245</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-13,59; 14,65</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,43; 22,17</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,33; 23,84</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-5,44; 22,9</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-30,15; 54,73</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-5,29; 70,24</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>1,68; 91,64</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-16,79; 115,48</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>14.19819207297492</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>14.40278712850394</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>10.2555606738471</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>22.6930114605662</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>16.59370395037153</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>16.71360586702861</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.5476921314045944</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.4947995378737179</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.3446467587927224</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.9907851099169032</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.6140120555449481</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.6322879826651089</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,43</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>9,04</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,81</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>11,91</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>6,66</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>8,75</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>7,55%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>27,55%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>8,14%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>44,23%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>21,94%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>31,85%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-0.4460655029494887</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>10.8480884124523</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>12.96950102072543</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>8.328232175624789</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>-0.01270680816860434</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.2821904091952953</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.3874415695656159</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.295355625092355</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,68; 6,77</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>5,21; 12,8</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,58; 6,47</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>7,71; 16,3</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>2,28; 11,03</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>4,41; 13,09</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-4,95; 22,75</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>14,59; 41,24</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-4,25; 19,84</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>26,33; 67,18</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>7,02; 39,41</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>14,69; 51,78</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-15.2802885251438</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-2.121988034362218</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.5693735796325391</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-6.521809292164541</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.3470507219587824</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.04767356716753345</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>0.02208293450579598</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.1902437439166451</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>12.60445530275767</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>22.48915016585496</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>23.88283728722173</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>22.40090816101547</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>0.4869578921977094</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.7036424493952192</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.9138582722396581</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>1.119091295485378</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>2.413365876594548</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>8.656457090283965</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>2.718163557113495</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>11.82645465628814</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>6.662350035379644</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>8.844117405889696</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.07484322804557497</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.2616390025628388</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.07859147369206546</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.4395863602477582</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.2193647737736594</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.3216371573018965</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-2.181253759392895</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>4.696070071614283</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.642943724636211</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>7.542228363947729</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>2.280250469875799</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>4.412117949114092</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.06163797293058804</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.1307272335482495</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.04399135667779674</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.2586846626898239</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>0.07022358916296846</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>0.1478023867540776</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>6.509413664913856</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>12.45580796005222</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>6.506899110548979</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>16.17489256427858</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>11.03295818808161</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>13.20355938868367</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.2210898323238455</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.3972767388345986</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.2012288037877897</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.6666738918423187</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.3940968495148912</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.5218042349840174</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
